--- a/data/trans_bre/IP16B02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16B02-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,39; 27,97</t>
+          <t>-36,42; 21,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 27,18</t>
+          <t>-36,46; 27,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,61; -12,33</t>
+          <t>-73,08; -11,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 41,47</t>
+          <t>-40,94; 30,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,57; 41,83</t>
+          <t>-39,62; 45,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,61; -12,33</t>
+          <t>-73,08; -11,09</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 3,51</t>
+          <t>-25,64; 4,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 1,25</t>
+          <t>-22,9; 1,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 14,28</t>
+          <t>-11,65; 14,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 4,16</t>
+          <t>-27,7; 4,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 1,49</t>
+          <t>-25,0; 1,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 18,06</t>
+          <t>-12,44; 17,82</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 15,95</t>
+          <t>-37,96; 16,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 33,43</t>
+          <t>-7,16; 33,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 6,24</t>
+          <t>-33,16; 7,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 18,99</t>
+          <t>-40,23; 19,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 54,59</t>
+          <t>-7,46; 54,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 6,16</t>
+          <t>-36,65; 8,2</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 2,5</t>
+          <t>-20,94; 3,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 3,39</t>
+          <t>-15,92; 2,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 3,33</t>
+          <t>-17,17; 3,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 2,58</t>
+          <t>-23,18; 4,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 3,85</t>
+          <t>-17,46; 3,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 3,8</t>
+          <t>-18,39; 4,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16B02-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-42,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,02%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,08; 26,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,2; 26,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,29; -11,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,33; 37,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,73; 38,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,29; -11,89</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,11</t>
+          <t>-11,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-42,02</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>-12,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>-12,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-42,02%</t>
+          <t>0,26%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 21,84</t>
+          <t>-27,86; 1,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 27,55</t>
+          <t>-23,16; -0,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,08; -11,09</t>
+          <t>-11,62; 13,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,94; 30,45</t>
+          <t>-29,6; 1,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 45,39</t>
+          <t>-25,1; -0,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,08; -11,09</t>
+          <t>-12,49; 16,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,98</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,28</t>
+          <t>9,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-12,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,21%</t>
+          <t>-5,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,64%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>-13,4%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 4,21</t>
+          <t>-40,28; 15,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 1,27</t>
+          <t>-8,93; 30,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 14,23</t>
+          <t>-32,55; 5,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 4,75</t>
+          <t>-44,98; 19,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 1,0</t>
+          <t>-9,09; 48,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 17,82</t>
+          <t>-33,76; 6,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-8,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,28</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,76%</t>
+          <t>-9,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>-7,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,4%</t>
+          <t>-8,5%</t>
         </is>
       </c>
     </row>
@@ -882,127 +882,46 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,96; 16,19</t>
+          <t>-21,46; 3,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 33,88</t>
+          <t>-17,15; 2,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 7,31</t>
+          <t>-17,91; 1,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 19,21</t>
+          <t>-23,04; 3,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 54,6</t>
+          <t>-18,73; 3,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 8,2</t>
+          <t>-18,71; 1,78</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-8,46</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-6,58</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,73</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-9,53%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-7,52%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-8,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-20,94; 3,78</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,92; 2,66</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,17; 3,68</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-23,18; 4,23</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-17,46; 3,08</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-18,39; 4,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
